--- a/Financial Analysis/Models (Automotive).xlsx
+++ b/Financial Analysis/Models (Automotive).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FAAD87-A6E2-4DB7-9E15-0AECF46A000E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394DB763-E1DA-46F2-8EF5-B9884AC45F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{44A3A52B-B984-4465-AC96-672BE039DB0B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Company</t>
   </si>
@@ -257,13 +257,16 @@
   </si>
   <si>
     <t>LCID US</t>
+  </si>
+  <si>
+    <t>2023 EV/R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0\x"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
     <numFmt numFmtId="166" formatCode="[$£-809]#,##0"/>
@@ -274,6 +277,7 @@
     <numFmt numFmtId="171" formatCode="#,##0.00\ [$€-484]"/>
     <numFmt numFmtId="172" formatCode="#,##0.00\ [$€-407]"/>
     <numFmt numFmtId="173" formatCode="#,##0\ [$€-407]"/>
+    <numFmt numFmtId="174" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -395,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -459,6 +463,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -617,57 +627,57 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="3">
-          <cell r="S3">
+          <cell r="Q3">
             <v>189544</v>
           </cell>
         </row>
         <row r="17">
+          <cell r="Q17">
+            <v>18596</v>
+          </cell>
+          <cell r="R17">
+            <v>5473</v>
+          </cell>
           <cell r="S17">
-            <v>18596</v>
+            <v>-121.04400000000184</v>
           </cell>
           <cell r="T17">
-            <v>5473</v>
+            <v>2322.7907304000009</v>
           </cell>
           <cell r="U17">
-            <v>-121.04400000000184</v>
+            <v>4719.6040671360006</v>
           </cell>
           <cell r="V17">
-            <v>2322.7907304000009</v>
-          </cell>
-          <cell r="W17">
-            <v>4719.6040671360006</v>
-          </cell>
-          <cell r="X17">
             <v>5964.6729261672017</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="S21">
+          <cell r="Q21">
             <v>5.5414495077731774E-2</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="S22">
+          <cell r="Q22">
             <v>0.20124087283163802</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="AH24">
+          <cell r="AF24">
             <v>0.08</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="S25">
+          <cell r="Q25">
             <v>0.11805174524121048</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="AH30">
+          <cell r="AF30">
             <v>1.3973121928006629</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="AH31" t="str">
+          <cell r="AF31" t="str">
             <v>Heavily undervalued</v>
           </cell>
         </row>
@@ -1113,23 +1123,23 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>98.9</v>
+            <v>98.4</v>
           </cell>
           <cell r="E3">
-            <v>45771</v>
+            <v>45782</v>
           </cell>
           <cell r="G3">
-            <v>45777</v>
+            <v>45863</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>49578.570000000007</v>
+            <v>49327.920000000006</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>-186459</v>
+            <v>-187383</v>
           </cell>
         </row>
       </sheetData>
@@ -1147,16 +1157,16 @@
             <v>10721</v>
           </cell>
           <cell r="AQ14">
-            <v>12884.232816000002</v>
+            <v>11092.382387500042</v>
           </cell>
           <cell r="AR14">
-            <v>13013.075144159997</v>
+            <v>13656.542687899993</v>
           </cell>
           <cell r="AS14">
-            <v>13143.205895601597</v>
+            <v>13793.108114778999</v>
           </cell>
           <cell r="AT14">
-            <v>13274.637954557613</v>
+            <v>13931.039195926793</v>
           </cell>
         </row>
         <row r="18">
@@ -1184,7 +1194,7 @@
         </row>
         <row r="28">
           <cell r="BD28">
-            <v>-0.48098848217869072</v>
+            <v>-0.33083021401817747</v>
           </cell>
         </row>
         <row r="29">
@@ -1212,28 +1222,28 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="D3">
-            <v>45.55</v>
+            <v>45.63</v>
           </cell>
           <cell r="E3">
-            <v>45771</v>
+            <v>45782</v>
           </cell>
           <cell r="G3">
-            <v>45776</v>
+            <v>45860</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>45322.25</v>
+            <v>43868.682000000001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>-102595</v>
+            <v>-105189</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9">
-            <v>147917.25</v>
+            <v>149057.682</v>
           </cell>
         </row>
       </sheetData>
@@ -1288,7 +1298,7 @@
         </row>
         <row r="31">
           <cell r="BD31">
-            <v>1.8260391354746552E-2</v>
+            <v>-7.1310548587337763E-3</v>
           </cell>
         </row>
         <row r="32">
@@ -2010,13 +2020,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA46B80D-B75F-4E09-8164-CA6226650D59}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AE28"/>
+  <dimension ref="B1:AF28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,20 +2038,21 @@
     <col min="8" max="13" width="6.44140625" style="11" customWidth="1"/>
     <col min="14" max="19" width="9.6640625" style="11" customWidth="1"/>
     <col min="20" max="20" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.6640625" style="11" customWidth="1"/>
-    <col min="23" max="24" width="9.6640625" style="14" customWidth="1"/>
-    <col min="25" max="25" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="14" customWidth="1"/>
-    <col min="27" max="27" width="18.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.33203125" style="15" customWidth="1"/>
-    <col min="29" max="29" width="9.33203125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="10.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.33203125" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="2"/>
+    <col min="21" max="21" width="11" style="11" customWidth="1"/>
+    <col min="22" max="23" width="9.6640625" style="11" customWidth="1"/>
+    <col min="24" max="25" width="9.6640625" style="14" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.33203125" style="14" customWidth="1"/>
+    <col min="28" max="28" width="18.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.33203125" style="15" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="10.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="9.33203125" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2067,10 +2078,11 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AD1" s="2"/>
+      <c r="AC1" s="2"/>
       <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2129,37 +2141,40 @@
         <v>46</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
@@ -2175,16 +2190,16 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="6">
-        <f t="shared" ref="N3:S3" si="0">TRIMMEAN(N4:N1048576,80%)</f>
-        <v>12.331994146559543</v>
+        <f t="shared" ref="N3:U3" si="0">TRIMMEAN(N4:N1048576,80%)</f>
+        <v>12.369528111804408</v>
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
-        <v>18.383490024183327</v>
+        <v>18.404425571240498</v>
       </c>
       <c r="P3" s="6">
         <f t="shared" si="0"/>
-        <v>15.837785075957548</v>
+        <v>15.893304142149864</v>
       </c>
       <c r="Q3" s="6">
         <f t="shared" si="0"/>
@@ -2192,46 +2207,50 @@
       </c>
       <c r="R3" s="6">
         <f t="shared" si="0"/>
-        <v>16.339038499250101</v>
+        <v>15.940354557707543</v>
       </c>
       <c r="S3" s="6">
         <f t="shared" si="0"/>
-        <v>16.108429442349507</v>
+        <v>15.713692866564791</v>
       </c>
       <c r="T3" s="4"/>
-      <c r="U3" s="7">
-        <f t="shared" ref="U3:Z3" si="1">TRIMMEAN(U4:U1048576,80%)</f>
+      <c r="U3" s="28">
+        <f t="shared" si="0"/>
+        <v>0.99521007588381571</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" ref="V3:AA3" si="1">TRIMMEAN(V4:V1048576,80%)</f>
         <v>0.25913588833450635</v>
       </c>
-      <c r="V3" s="7">
+      <c r="W3" s="7">
         <f t="shared" si="1"/>
         <v>0.10555819036287195</v>
       </c>
-      <c r="W3" s="7">
+      <c r="X3" s="7">
         <f t="shared" si="1"/>
         <v>0.18591561828002373</v>
       </c>
-      <c r="X3" s="7">
+      <c r="Y3" s="7">
         <f t="shared" si="1"/>
         <v>6.2078930623954212E-2</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Z3" s="7">
         <f t="shared" si="1"/>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="AA3" s="7">
         <f t="shared" si="1"/>
-        <v>-0.37453736139755095</v>
-      </c>
-      <c r="AA3" s="8" t="e">
-        <f>INDEX(AA4:AA17,MODE(MATCH(AA4:AA17,AA4:AA17,0)))</f>
+        <v>-0.32448460534404661</v>
+      </c>
+      <c r="AB3" s="8" t="e">
+        <f>INDEX(AB4:AB17,MODE(MATCH(AB4:AB17,AB4:AB17,0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AD3" s="2"/>
+      <c r="AC3" s="2"/>
       <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
@@ -2306,47 +2325,51 @@
         <f>[1]Model!$AQ$9</f>
         <v>24578</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="27">
+        <f>G4/T4</f>
+        <v>32.42775612336235</v>
+      </c>
+      <c r="V4" s="14">
         <f>[1]Model!$AP$36</f>
         <v>0.82516435758086049</v>
       </c>
-      <c r="V4" s="14">
+      <c r="W4" s="14">
         <f>[1]Model!$AQ$36</f>
         <v>0.14528823258046342</v>
       </c>
-      <c r="W4" s="14">
+      <c r="X4" s="14">
         <f>[1]Model!$AU$42</f>
         <v>0.18248891736331416</v>
       </c>
-      <c r="X4" s="14">
+      <c r="Y4" s="14">
         <f>[1]Model!$AU$45</f>
         <v>9.1874799789197395E-2</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Z4" s="14">
         <f>[1]Model!$BJ$31</f>
         <v>0.05</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="AA4" s="14">
         <f>[1]Model!$BJ$37</f>
         <v>-0.62575831274388716</v>
       </c>
-      <c r="AA4" s="14" t="str">
+      <c r="AB4" s="14" t="str">
         <f>[1]Model!$BJ$38</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AC4" s="15">
         <v>2003</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AE4" s="16">
         <f>[1]Main!$E$3</f>
         <v>45770</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AF4" s="16">
         <f>[1]Main!$G$3</f>
         <v>45867</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -2376,33 +2399,34 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="13"/>
-      <c r="U5" s="14"/>
+      <c r="U5" s="13"/>
       <c r="V5" s="14"/>
-      <c r="Y5" s="14">
+      <c r="W5" s="14"/>
+      <c r="Z5" s="14">
         <f>[2]Model!$AB$24</f>
         <v>0.05</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="AA5" s="14">
         <f>[2]Model!$AB$30</f>
         <v>0.19392279537411672</v>
       </c>
-      <c r="AA5" s="14" t="str">
+      <c r="AB5" s="14" t="str">
         <f>[2]Model!$AB$31</f>
         <v>Slightly undervalued</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AC5" s="15">
         <v>1937</v>
       </c>
-      <c r="AD5" s="16">
+      <c r="AE5" s="16">
         <f>[2]Main!$E$3</f>
         <v>44256</v>
       </c>
-      <c r="AE5" s="16">
+      <c r="AF5" s="16">
         <f>[2]Main!$G$3</f>
         <v>44328</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
@@ -2411,19 +2435,19 @@
       </c>
       <c r="D6" s="17">
         <f>[3]Main!$D$3</f>
-        <v>98.9</v>
+        <v>98.4</v>
       </c>
       <c r="E6" s="11">
         <f>[3]Main!$D$5</f>
-        <v>49578.570000000007</v>
+        <v>49327.920000000006</v>
       </c>
       <c r="F6" s="11">
         <f>[3]Main!$D$8</f>
-        <v>-186459</v>
+        <v>-187383</v>
       </c>
       <c r="G6" s="11">
         <f>E6-F6</f>
-        <v>236037.57</v>
+        <v>236710.92</v>
       </c>
       <c r="H6" s="11">
         <f>[3]Model!AO14</f>
@@ -2435,89 +2459,93 @@
       </c>
       <c r="J6" s="11">
         <f>[3]Model!AQ14</f>
-        <v>12884.232816000002</v>
+        <v>11092.382387500042</v>
       </c>
       <c r="K6" s="11">
         <f>[3]Model!AR14</f>
-        <v>13013.075144159997</v>
+        <v>13656.542687899993</v>
       </c>
       <c r="L6" s="11">
         <f>[3]Model!AS14</f>
-        <v>13143.205895601597</v>
+        <v>13793.108114778999</v>
       </c>
       <c r="M6" s="11">
         <f>[3]Model!AT14</f>
-        <v>13274.637954557613</v>
+        <v>13931.039195926793</v>
       </c>
       <c r="N6" s="12">
         <f t="shared" ref="N6:S10" si="3">$G6/H6</f>
-        <v>14.740371573096859</v>
+        <v>14.782421782301881</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" si="3"/>
-        <v>22.016376270870257</v>
+        <v>22.079182912041787</v>
       </c>
       <c r="P6" s="12">
         <f t="shared" si="3"/>
-        <v>18.319877742886014</v>
+        <v>21.339953107526163</v>
       </c>
       <c r="Q6" s="12">
         <f t="shared" si="3"/>
-        <v>18.138492814738633</v>
+        <v>17.333151252822667</v>
       </c>
       <c r="R6" s="12">
         <f t="shared" si="3"/>
-        <v>17.958903776968942</v>
+        <v>17.161535893883823</v>
       </c>
       <c r="S6" s="12">
         <f t="shared" si="3"/>
-        <v>17.781092848484104</v>
+        <v>16.991619696914672</v>
       </c>
       <c r="T6" s="18">
         <f>[3]Model!$AO$3</f>
         <v>322284</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="27">
+        <f t="shared" ref="U6:U10" si="4">G6/T6</f>
+        <v>0.73447927914510192</v>
+      </c>
+      <c r="V6" s="14">
         <f>[3]Model!$AN$23</f>
         <v>0.11603517186250989</v>
       </c>
-      <c r="V6" s="14">
+      <c r="W6" s="14">
         <f>[3]Model!$AO$23</f>
         <v>0.15418003667201474</v>
       </c>
-      <c r="W6" s="14">
+      <c r="X6" s="14">
         <f>[3]Model!$AO$18</f>
         <v>0.18934231919673331</v>
       </c>
-      <c r="X6" s="14">
+      <c r="Y6" s="14">
         <f>[3]Model!$AO$19</f>
         <v>7.0050017996549627E-2</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Z6" s="14">
         <f>[3]Model!$BD$22</f>
         <v>0.06</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="AA6" s="14">
         <f>[3]Model!$BD$28</f>
-        <v>-0.48098848217869072</v>
-      </c>
-      <c r="AA6" s="14" t="str">
+        <v>-0.33083021401817747</v>
+      </c>
+      <c r="AB6" s="14" t="str">
         <f>[3]Model!$BD$29</f>
         <v>Overvalued</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AC6" s="15">
         <v>1937</v>
       </c>
-      <c r="AD6" s="16">
+      <c r="AE6" s="16">
         <f>[3]Main!$E$3</f>
-        <v>45771</v>
-      </c>
-      <c r="AE6" s="16">
+        <v>45782</v>
+      </c>
+      <c r="AF6" s="16">
         <f>[3]Main!$G$3</f>
-        <v>45777</v>
+        <v>45863</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
@@ -2526,19 +2554,19 @@
       </c>
       <c r="D7" s="10">
         <f>[4]Main!$D$3</f>
-        <v>45.55</v>
+        <v>45.63</v>
       </c>
       <c r="E7" s="11">
         <f>[4]Main!$D$5</f>
-        <v>45322.25</v>
+        <v>43868.682000000001</v>
       </c>
       <c r="F7" s="11">
         <f>[4]Main!$D$8</f>
-        <v>-102595</v>
+        <v>-105189</v>
       </c>
       <c r="G7" s="11">
         <f>[4]Main!$D$9</f>
-        <v>147917.25</v>
+        <v>149057.682</v>
       </c>
       <c r="H7" s="11">
         <f>[4]Model!AO$16</f>
@@ -2566,73 +2594,77 @@
       </c>
       <c r="N7" s="12">
         <f t="shared" si="3"/>
-        <v>14.604783767772512</v>
+        <v>14.717385663507109</v>
       </c>
       <c r="O7" s="12">
         <f t="shared" si="3"/>
-        <v>24.615951073389915</v>
+        <v>24.805738392411381</v>
       </c>
       <c r="P7" s="12">
         <f t="shared" si="3"/>
-        <v>14.40195924655805</v>
+        <v>14.512997378942682</v>
       </c>
       <c r="Q7" s="12">
         <f t="shared" si="3"/>
-        <v>14.009078509308932</v>
+        <v>14.117087557763579</v>
       </c>
       <c r="R7" s="12">
         <f t="shared" si="3"/>
-        <v>13.660208214628989</v>
+        <v>13.765527496691263</v>
       </c>
       <c r="S7" s="12">
         <f t="shared" si="3"/>
-        <v>13.345346983243878</v>
+        <v>13.448238706493159</v>
       </c>
       <c r="T7" s="13">
         <f>[4]Model!$AO$3</f>
         <v>171842</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="27">
+        <f t="shared" si="4"/>
+        <v>0.86741123823046751</v>
+      </c>
+      <c r="V7" s="14">
         <f>[4]Model!AN$23</f>
         <v>0.23409498913420057</v>
       </c>
-      <c r="V7" s="14">
+      <c r="W7" s="14">
         <f>[4]Model!AO$23</f>
         <v>9.63856190385044E-2</v>
       </c>
-      <c r="W7" s="14">
+      <c r="X7" s="14">
         <f>[4]Model!$AO$20</f>
         <v>0.17755845485969671</v>
       </c>
-      <c r="X7" s="14">
+      <c r="Y7" s="14">
         <f>[4]Model!$AO$21</f>
         <v>5.4107843251358805E-2</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Z7" s="14">
         <f>[4]Model!$BD$25</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="AA7" s="14">
         <f>[4]Model!$BD$31</f>
-        <v>1.8260391354746552E-2</v>
-      </c>
-      <c r="AA7" s="14" t="str">
+        <v>-7.1310548587337763E-3</v>
+      </c>
+      <c r="AB7" s="14" t="str">
         <f>[4]Model!$BD$32</f>
         <v>Fairly valued</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AC7" s="15">
         <v>1908</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AE7" s="16">
         <f>[4]Main!$E$3</f>
-        <v>45771</v>
-      </c>
-      <c r="AE7" s="16">
+        <v>45782</v>
+      </c>
+      <c r="AF7" s="16">
         <f>[4]Main!$G$3</f>
-        <v>45776</v>
+        <v>45860</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
@@ -2707,47 +2739,51 @@
         <f>[5]Model!$AO$3</f>
         <v>176191</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="27">
+        <f t="shared" si="4"/>
+        <v>0.83876812663529909</v>
+      </c>
+      <c r="V8" s="14">
         <f>[5]Model!$AN$21</f>
         <v>0.15927710666637318</v>
       </c>
-      <c r="V8" s="14">
+      <c r="W8" s="14">
         <f>[5]Model!$AO$21</f>
         <v>0.1147307616872395</v>
       </c>
-      <c r="W8" s="14">
+      <c r="X8" s="14">
         <f>[5]Model!$AO$17</f>
         <v>0.14552956734452951</v>
       </c>
-      <c r="X8" s="14">
+      <c r="Y8" s="14">
         <f>[5]Model!$AO$18</f>
         <v>3.0977745741836985E-2</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Z8" s="14">
         <f>[5]Model!$BD$20</f>
         <v>0.06</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="AA8" s="14">
         <f>[5]Model!$BD$26</f>
         <v>-0.93051516092840769</v>
       </c>
-      <c r="AA8" s="14" t="str">
+      <c r="AB8" s="14" t="str">
         <f>[5]Model!$BD$27</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AC8" s="15">
         <v>1903</v>
       </c>
-      <c r="AD8" s="16">
+      <c r="AE8" s="16">
         <f>[5]Main!$E$3</f>
         <v>45771</v>
       </c>
-      <c r="AE8" s="16">
+      <c r="AF8" s="16">
         <f>[5]Main!$G$3</f>
         <v>45782</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
@@ -2795,74 +2831,78 @@
         <v>11357.547096230926</v>
       </c>
       <c r="N9" s="12">
-        <f t="shared" ref="N9:S9" si="4">$G9/H9</f>
+        <f t="shared" ref="N9:S9" si="5">$G9/H9</f>
         <v>10.184139681649253</v>
       </c>
       <c r="O9" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.229060056823748</v>
       </c>
       <c r="P9" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.869284282700217</v>
       </c>
       <c r="Q9" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.885803696680391</v>
       </c>
       <c r="R9" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.835825055747939</v>
       </c>
       <c r="S9" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.787621725838802</v>
       </c>
       <c r="T9" s="18">
         <f>[6]Model!$AO$3</f>
         <v>153218</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="27">
+        <f t="shared" si="4"/>
+        <v>0.94790439765562795</v>
+      </c>
+      <c r="V9" s="14">
         <f>[6]Model!$AN$24</f>
         <v>0.12042451808533672</v>
       </c>
-      <c r="V9" s="14">
+      <c r="W9" s="14">
         <f>[6]Model!$AO$24</f>
         <v>2.1337581740735967E-2</v>
       </c>
-      <c r="W9" s="14">
+      <c r="X9" s="14">
         <f>[6]Model!$AO$25</f>
         <v>0.22437964207860694</v>
       </c>
-      <c r="X9" s="14">
+      <c r="Y9" s="14">
         <f>[6]Model!$AO$26</f>
         <v>0.1283139056768787</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Z9" s="14">
         <f>[6]Model!$BD$27</f>
         <v>0.08</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="AA9" s="14">
         <f>[6]Model!$BD$33</f>
         <v>-0.13237746470634748</v>
       </c>
-      <c r="AA9" s="14" t="str">
+      <c r="AB9" s="14" t="str">
         <f>[6]Model!$BD$34</f>
         <v>Slightly overvalued</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AC9" s="15">
         <v>1926</v>
       </c>
-      <c r="AD9" s="16">
+      <c r="AE9" s="16">
         <f>[6]Main!$E$3</f>
         <v>45771</v>
       </c>
-      <c r="AE9" s="16">
+      <c r="AF9" s="16">
         <f>[6]Main!$G$3</f>
         <v>45777</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
@@ -2937,47 +2977,51 @@
         <f>[7]Model!$AO$3</f>
         <v>155498</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="27">
+        <f t="shared" si="4"/>
+        <v>0.8862988334255103</v>
+      </c>
+      <c r="V10" s="14">
         <f>[7]Model!$AN$18</f>
         <v>0.28201440142396095</v>
       </c>
-      <c r="V10" s="14">
+      <c r="W10" s="14">
         <f>[7]Model!$AO$18</f>
         <v>9.0372344155388751E-2</v>
       </c>
-      <c r="W10" s="14">
+      <c r="X10" s="14">
         <f>[7]Model!$AO$19</f>
         <v>0.19092850068811174</v>
       </c>
-      <c r="X10" s="14">
+      <c r="Y10" s="14">
         <f>[7]Model!$AO$20</f>
         <v>0.1188568341715006</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Z10" s="14">
         <f>[7]Model!$BD$21</f>
         <v>0.08</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="AA10" s="14">
         <f>[7]Model!$BD$27</f>
         <v>-0.51311441678656355</v>
       </c>
-      <c r="AA10" s="14" t="str">
+      <c r="AB10" s="14" t="str">
         <f>[7]Model!$BD$28</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AC10" s="15">
         <v>1916</v>
       </c>
-      <c r="AD10" s="16">
+      <c r="AE10" s="16">
         <f>[7]Main!$E$3</f>
         <v>45771</v>
       </c>
-      <c r="AE10" s="16">
+      <c r="AF10" s="16">
         <f>[7]Main!$G$3</f>
         <v>45784</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
@@ -3007,25 +3051,26 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="14"/>
+      <c r="U11" s="13"/>
       <c r="V11" s="14"/>
-      <c r="Y11" s="14">
+      <c r="W11" s="14"/>
+      <c r="Z11" s="14">
         <f>[8]Model!$R$23</f>
         <v>0.06</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="AA11" s="14">
         <f>[8]Model!$R$29</f>
         <v>0.20695593367719556</v>
       </c>
-      <c r="AA11" s="14" t="str">
+      <c r="AB11" s="14" t="str">
         <f>[8]Model!$R$30</f>
         <v>Slightly undervalued</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AC11" s="15">
         <v>1948</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>68</v>
       </c>
@@ -3057,11 +3102,11 @@
         <v>3596</v>
       </c>
       <c r="N12" s="12">
-        <f t="shared" ref="N12" si="5">$G12/H12</f>
+        <f t="shared" ref="N12" si="6">$G12/H12</f>
         <v>9.2302017067494173</v>
       </c>
       <c r="O12" s="12">
-        <f t="shared" ref="O12" si="6">$G12/I12</f>
+        <f t="shared" ref="O12" si="7">$G12/I12</f>
         <v>13.23440489432703</v>
       </c>
       <c r="P12" s="12"/>
@@ -3072,18 +3117,22 @@
         <f>[9]Model!$N$3</f>
         <v>40530</v>
       </c>
-      <c r="U12" s="14"/>
+      <c r="U12" s="27">
+        <f t="shared" ref="U12:U13" si="8">G12/T12</f>
+        <v>1.1742146558105107</v>
+      </c>
       <c r="V12" s="14"/>
-      <c r="AD12" s="16">
+      <c r="W12" s="14"/>
+      <c r="AE12" s="16">
         <f>[9]Main!$E$3</f>
         <v>45771</v>
       </c>
-      <c r="AE12" s="16">
+      <c r="AF12" s="16">
         <f>[9]Main!$G$3</f>
         <v>45776</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>65</v>
       </c>
@@ -3107,27 +3156,27 @@
         <v>33227.800000000003</v>
       </c>
       <c r="H13" s="11">
+        <f>[10]Model!Q$17</f>
+        <v>18596</v>
+      </c>
+      <c r="I13" s="11">
+        <f>[10]Model!R$17</f>
+        <v>5473</v>
+      </c>
+      <c r="J13" s="11">
         <f>[10]Model!S$17</f>
-        <v>18596</v>
-      </c>
-      <c r="I13" s="11">
+        <v>-121.04400000000184</v>
+      </c>
+      <c r="K13" s="11">
         <f>[10]Model!T$17</f>
-        <v>5473</v>
-      </c>
-      <c r="J13" s="11">
+        <v>2322.7907304000009</v>
+      </c>
+      <c r="L13" s="11">
         <f>[10]Model!U$17</f>
-        <v>-121.04400000000184</v>
-      </c>
-      <c r="K13" s="11">
+        <v>4719.6040671360006</v>
+      </c>
+      <c r="M13" s="11">
         <f>[10]Model!V$17</f>
-        <v>2322.7907304000009</v>
-      </c>
-      <c r="L13" s="11">
-        <f>[10]Model!W$17</f>
-        <v>4719.6040671360006</v>
-      </c>
-      <c r="M13" s="11">
-        <f>[10]Model!X$17</f>
         <v>5964.6729261672017</v>
       </c>
       <c r="N13" s="12">
@@ -3139,63 +3188,67 @@
         <v>6.0712223643340035</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" ref="P13:S13" si="7">$G13/J13</f>
+        <f t="shared" ref="P13:S13" si="9">$G13/J13</f>
         <v>-274.51009550245777</v>
       </c>
       <c r="Q13" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14.305119942629503</v>
       </c>
       <c r="R13" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0403787112938145</v>
       </c>
       <c r="S13" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.5707664797894676</v>
       </c>
       <c r="T13" s="13">
-        <f>[10]Model!$S$3</f>
+        <f>[10]Model!$Q$3</f>
         <v>189544</v>
       </c>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14">
-        <f>[10]Model!$S$21</f>
+      <c r="U13" s="27">
+        <f t="shared" si="8"/>
+        <v>0.17530388722407464</v>
+      </c>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14">
+        <f>[10]Model!$Q$21</f>
         <v>5.5414495077731774E-2</v>
       </c>
-      <c r="W13" s="14">
-        <f>[10]Model!$S$22</f>
+      <c r="X13" s="14">
+        <f>[10]Model!$Q$22</f>
         <v>0.20124087283163802</v>
       </c>
-      <c r="X13" s="14">
-        <f>[10]Model!$S$25</f>
+      <c r="Y13" s="14">
+        <f>[10]Model!$Q$25</f>
         <v>0.11805174524121048</v>
       </c>
-      <c r="Y13" s="14">
-        <f>[10]Model!$AH$24</f>
+      <c r="Z13" s="14">
+        <f>[10]Model!$AF$24</f>
         <v>0.08</v>
       </c>
-      <c r="Z13" s="14">
-        <f>[10]Model!$AH$30</f>
+      <c r="AA13" s="14">
+        <f>[10]Model!$AF$30</f>
         <v>1.3973121928006629</v>
       </c>
-      <c r="AA13" s="14" t="str">
-        <f>[10]Model!$AH$31</f>
+      <c r="AB13" s="14" t="str">
+        <f>[10]Model!$AF$31</f>
         <v>Heavily undervalued</v>
       </c>
-      <c r="AB13" s="15" t="s">
+      <c r="AC13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AD13" s="16">
+      <c r="AE13" s="16">
         <f>[10]Main!$E$3</f>
         <v>45771</v>
       </c>
-      <c r="AE13" s="16">
+      <c r="AF13" s="16">
         <f>[10]Main!$G$3</f>
         <v>45777</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>21</v>
       </c>
@@ -3225,33 +3278,34 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="14"/>
+      <c r="U14" s="18"/>
       <c r="V14" s="14"/>
-      <c r="Y14" s="14">
+      <c r="W14" s="14"/>
+      <c r="Z14" s="14">
         <f>[11]Model!$AI$23</f>
         <v>0.06</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="AA14" s="14">
         <f>[11]Model!$AI$29</f>
         <v>-0.19255438000847924</v>
       </c>
-      <c r="AA14" s="14" t="str">
+      <c r="AB14" s="14" t="str">
         <f>[11]Model!$AI$30</f>
         <v>Slightly overvalued</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AC14" s="15">
         <v>1947</v>
       </c>
-      <c r="AD14" s="16">
+      <c r="AE14" s="16">
         <f>[11]Main!$E$3</f>
         <v>44257</v>
       </c>
-      <c r="AE14" s="16">
+      <c r="AF14" s="16">
         <f>[11]Main!$G$3</f>
         <v>44320</v>
       </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>62</v>
       </c>
@@ -3302,47 +3356,51 @@
         <f>[12]Model!$X$5</f>
         <v>4434</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="27">
+        <f t="shared" ref="U15:U17" si="10">G15/T15</f>
+        <v>2.1187821380243572</v>
+      </c>
+      <c r="V15" s="14">
         <f>[12]Model!$W$25</f>
         <v>29.145454545454545</v>
       </c>
-      <c r="V15" s="14">
+      <c r="W15" s="14">
         <f>[12]Model!$X$25</f>
         <v>1.6743063932448732</v>
       </c>
-      <c r="W15" s="14">
+      <c r="X15" s="14">
         <f>[12]Model!$X$26</f>
         <v>-0.45782589084348219</v>
       </c>
-      <c r="X15" s="14">
+      <c r="Y15" s="14">
         <f>[12]Model!$Y$26</f>
         <v>-0.2414486921529175</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Z15" s="14">
         <f>[12]Model!$AN$27</f>
         <v>0.09</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="AA15" s="14">
         <f>[12]Model!$AN$78</f>
         <v>-1.0978041506643392</v>
       </c>
-      <c r="AA15" s="14" t="str">
+      <c r="AB15" s="14" t="str">
         <f>[12]Model!$AN$34</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="AC15" s="15">
         <v>2009</v>
       </c>
-      <c r="AD15" s="16">
+      <c r="AE15" s="16">
         <f>[12]Main!$E$3</f>
         <v>45713</v>
       </c>
-      <c r="AE15" s="16">
+      <c r="AF15" s="16">
         <f>[12]Main!$G$3</f>
         <v>45790</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
         <v>70</v>
       </c>
@@ -3393,44 +3451,48 @@
         <f>[13]Model!$AB$3</f>
         <v>595.29999999999995</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16" s="27">
+        <f t="shared" si="10"/>
+        <v>9.119250797917017</v>
+      </c>
+      <c r="V16" s="14">
         <f>[13]Model!$AA$18</f>
         <v>21.44280442804428</v>
       </c>
-      <c r="V16" s="14">
+      <c r="W16" s="14">
         <f>[13]Model!$AB$18</f>
         <v>-2.1210128247287185E-2</v>
       </c>
-      <c r="W16" s="14">
+      <c r="X16" s="14">
         <f>[13]Model!$AB$19</f>
         <v>-2.2523097597849824</v>
       </c>
-      <c r="X16" s="14">
+      <c r="Y16" s="14">
         <f>[13]Model!$AB$22</f>
         <v>-5.2066185116747858</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Z16" s="14">
         <f>[13]Model!$AQ$20</f>
         <v>0.1</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="AA16" s="14">
         <f>[13]Model!$AQ$26</f>
         <v>-1.7560259481433871</v>
       </c>
-      <c r="AA16" s="14" t="str">
+      <c r="AB16" s="14" t="str">
         <f>[13]Model!$AQ$27</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AD16" s="16">
+      <c r="AE16" s="16">
         <f>[13]Main!$E$3</f>
         <v>45771</v>
       </c>
-      <c r="AE16" s="16">
+      <c r="AF16" s="16">
         <f>[13]Main!$G$3</f>
         <v>45783</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
@@ -3478,84 +3540,88 @@
         <v>79.191899431941238</v>
       </c>
       <c r="N17" s="12">
-        <f t="shared" ref="N17:S17" si="8">$G17/H17</f>
+        <f t="shared" ref="N17:S17" si="11">$G17/H17</f>
         <v>-8.2422183252959194</v>
       </c>
       <c r="O17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-7.8451590396779229</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-13.686709653032295</v>
       </c>
       <c r="Q17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-41.379937406583046</v>
       </c>
       <c r="R17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>66.15798294548901</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>23.740433219634347</v>
       </c>
       <c r="T17" s="20">
         <f>[14]Model!$AH$3</f>
         <v>1632.8</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="27">
+        <f t="shared" si="10"/>
+        <v>1.1514269965703088</v>
+      </c>
+      <c r="V17" s="14">
         <f>[14]Model!$AG$19</f>
         <v>0.26129827444535758</v>
       </c>
-      <c r="V17" s="14">
+      <c r="W17" s="14">
         <f>[14]Model!$AH$19</f>
         <v>0.18190372783206654</v>
       </c>
-      <c r="W17" s="14">
+      <c r="X17" s="14">
         <f>[14]Model!$AH$20</f>
         <v>0.3914747672709456</v>
       </c>
-      <c r="X17" s="14">
+      <c r="Y17" s="14">
         <f>[14]Model!$AH$21</f>
         <v>-6.8103870651641418E-2</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Z17" s="14">
         <f>[14]Model!$AW$19</f>
         <v>0.08</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="AA17" s="14">
         <f>[14]Model!$AW$25</f>
         <v>-0.45006922200548305</v>
       </c>
-      <c r="AA17" s="14" t="str">
+      <c r="AB17" s="14" t="str">
         <f>[14]Model!$AW$26</f>
         <v>Overvalued</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AC17" s="15">
         <v>1913</v>
       </c>
-      <c r="AD17" s="16">
+      <c r="AE17" s="16">
         <f>[14]Main!$E$3</f>
         <v>45635</v>
       </c>
-      <c r="AE17" s="16">
+      <c r="AF17" s="16">
         <f>[14]Main!$G$3</f>
         <v>45715</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
@@ -3563,37 +3629,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>60</v>
       </c>
@@ -3601,7 +3667,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
